--- a/data/2019/data.xlsx
+++ b/data/2019/data.xlsx
@@ -430,7 +430,43 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>695.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>148.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>843.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -867,12 +903,6 @@
           <t>2019-12-01</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>65320.0</t>
@@ -935,12 +965,6 @@
           <t>2019-12-01</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>65024.0</t>

--- a/data/2019/data.xlsx
+++ b/data/2019/data.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,43 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>843.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>695.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>148.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>843.00</t>
         </is>
